--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.7743842401992</v>
+        <v>482.6762130625111</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.4045169420091</v>
+        <v>660.4188888837817</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.152577079498</v>
+        <v>597.3894370324449</v>
       </c>
       <c r="AD2" t="n">
-        <v>430774.3842401992</v>
+        <v>482676.2130625111</v>
       </c>
       <c r="AE2" t="n">
-        <v>589404.5169420091</v>
+        <v>660418.8888837817</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.14807233511462e-06</v>
+        <v>3.631422861700185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>533152.577079498</v>
+        <v>597389.4370324449</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.5953048035401</v>
+        <v>250.7535060712617</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.4599838931771</v>
+        <v>343.0920094704776</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.7845047287369</v>
+        <v>310.3477896193771</v>
       </c>
       <c r="AD3" t="n">
-        <v>219595.3048035401</v>
+        <v>250753.5060712617</v>
       </c>
       <c r="AE3" t="n">
-        <v>300459.9838931771</v>
+        <v>343092.0094704776</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.336808674953771e-06</v>
+        <v>5.641040624779541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.072048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>271784.5047287369</v>
+        <v>310347.7896193771</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.4581666152209</v>
+        <v>205.5310270283708</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.7013601139525</v>
+        <v>281.2166185690554</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.920037324209</v>
+        <v>254.3776991829104</v>
       </c>
       <c r="AD4" t="n">
-        <v>174458.1666152209</v>
+        <v>205531.0270283708</v>
       </c>
       <c r="AE4" t="n">
-        <v>238701.3601139525</v>
+        <v>281216.6185690553</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.786926322956013e-06</v>
+        <v>6.401986841855065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.349392361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>215920.037324209</v>
+        <v>254377.6991829104</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.719311204081</v>
+        <v>182.5483691217934</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.2714961418027</v>
+        <v>249.7707320979842</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.1536551065879</v>
+        <v>225.9329639820494</v>
       </c>
       <c r="AD5" t="n">
-        <v>161719.311204081</v>
+        <v>182548.3691217934</v>
       </c>
       <c r="AE5" t="n">
-        <v>221271.4961418027</v>
+        <v>249770.7320979842</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.954238255173399e-06</v>
+        <v>6.684835964651029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>200153.6551065879</v>
+        <v>225932.9639820494</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.1942390042894</v>
+        <v>183.0232969220017</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.9213133103833</v>
+        <v>250.4205492665648</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.7414546366235</v>
+        <v>226.520763512085</v>
       </c>
       <c r="AD6" t="n">
-        <v>162194.2390042894</v>
+        <v>183023.2969220018</v>
       </c>
       <c r="AE6" t="n">
-        <v>221921.3133103833</v>
+        <v>250420.5492665648</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.95451835327421e-06</v>
+        <v>6.685309484387853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>200741.4546366235</v>
+        <v>226520.763512085</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.5140418549594</v>
+        <v>349.7961993651169</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.8083256929121</v>
+        <v>478.6065918905396</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.6967942583774</v>
+        <v>432.9290504890763</v>
       </c>
       <c r="AD2" t="n">
-        <v>299514.0418549594</v>
+        <v>349796.1993651169</v>
       </c>
       <c r="AE2" t="n">
-        <v>409808.3256929122</v>
+        <v>478606.5918905396</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.643168521473535e-06</v>
+        <v>4.577415476750255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.9296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>370696.7942583774</v>
+        <v>432929.0504890763</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.0038220427851</v>
+        <v>201.275525574365</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.9749734750211</v>
+        <v>275.3940537402135</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6447303925704</v>
+        <v>249.1108317693102</v>
       </c>
       <c r="AD3" t="n">
-        <v>171003.8220427851</v>
+        <v>201275.525574365</v>
       </c>
       <c r="AE3" t="n">
-        <v>233974.9734750211</v>
+        <v>275394.0537402135</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.755161475786361e-06</v>
+        <v>6.503154875413767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>211644.7303925704</v>
+        <v>249110.8317693102</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.9625770915351</v>
+        <v>172.1438022878062</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.9219020922938</v>
+        <v>235.5347447386372</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.078127576887</v>
+        <v>213.0556392759401</v>
       </c>
       <c r="AD4" t="n">
-        <v>151962.5770915351</v>
+        <v>172143.8022878062</v>
       </c>
       <c r="AE4" t="n">
-        <v>207921.9020922938</v>
+        <v>235534.7447386371</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.048975648201858e-06</v>
+        <v>7.011979617074012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>188078.127576887</v>
+        <v>213055.6392759401</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.4792711250565</v>
+        <v>172.6604963213275</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.6288656638893</v>
+        <v>236.2417083102326</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.7176195374392</v>
+        <v>213.6951312364924</v>
       </c>
       <c r="AD5" t="n">
-        <v>152479.2711250565</v>
+        <v>172660.4963213275</v>
       </c>
       <c r="AE5" t="n">
-        <v>208628.8656638893</v>
+        <v>236241.7083102326</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.048589304779879e-06</v>
+        <v>7.011310551010027e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.177951388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>188717.6195374393</v>
+        <v>213695.1312364924</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.6433461887569</v>
+        <v>159.9894430269026</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.488478066811</v>
+        <v>218.9046141853906</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.1674724408442</v>
+        <v>198.0126650421553</v>
       </c>
       <c r="AD2" t="n">
-        <v>132643.3461887569</v>
+        <v>159989.4430269026</v>
       </c>
       <c r="AE2" t="n">
-        <v>181488.478066811</v>
+        <v>218904.6141853906</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.106794737750402e-06</v>
+        <v>7.770939383831608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>164167.4724408442</v>
+        <v>198012.6650421553</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.9557446562004</v>
+        <v>160.3018414943461</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.9159154320148</v>
+        <v>219.3320515505944</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.5541157838252</v>
+        <v>198.3993083851363</v>
       </c>
       <c r="AD3" t="n">
-        <v>132955.7446562004</v>
+        <v>160301.8414943462</v>
       </c>
       <c r="AE3" t="n">
-        <v>181915.9154320148</v>
+        <v>219332.0515505944</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.116817881973228e-06</v>
+        <v>7.78990532957879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.681423611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>164554.1157838252</v>
+        <v>198399.3083851363</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.4652795105096</v>
+        <v>205.869920501406</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.8158246417423</v>
+        <v>281.6803075697868</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.6418231321551</v>
+        <v>254.7971343562037</v>
       </c>
       <c r="AD2" t="n">
-        <v>177465.2795105096</v>
+        <v>205869.920501406</v>
       </c>
       <c r="AE2" t="n">
-        <v>242815.8246417423</v>
+        <v>281680.3075697868</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.619832620274922e-06</v>
+        <v>6.594548897787697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>219641.8231321551</v>
+        <v>254797.1343562037</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.3957432792881</v>
+        <v>166.7150434156128</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.3591615439207</v>
+        <v>228.1068773497676</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.2869889334748</v>
+        <v>206.3366771255846</v>
       </c>
       <c r="AD3" t="n">
-        <v>138395.7432792881</v>
+        <v>166715.0434156128</v>
       </c>
       <c r="AE3" t="n">
-        <v>189359.1615439208</v>
+        <v>228106.8773497676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.152682539996376e-06</v>
+        <v>7.565285729956057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.388454861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>171286.9889334748</v>
+        <v>206336.6771255846</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8602955879667</v>
+        <v>165.1829941431477</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.994782507256</v>
+        <v>226.0106599459381</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.861947124169</v>
+        <v>204.4405197687163</v>
       </c>
       <c r="AD2" t="n">
-        <v>138860.2955879667</v>
+        <v>165182.9941431477</v>
       </c>
       <c r="AE2" t="n">
-        <v>189994.782507256</v>
+        <v>226010.6599459381</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.978028787702464e-06</v>
+        <v>7.795654701161031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>171861.947124169</v>
+        <v>204440.5197687163</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.1426962309236</v>
+        <v>374.7602708449674</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.1887783185172</v>
+        <v>512.7635358263764</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.5553229842776</v>
+        <v>463.8261036352487</v>
       </c>
       <c r="AD2" t="n">
-        <v>334142.6962309236</v>
+        <v>374760.2708449674</v>
       </c>
       <c r="AE2" t="n">
-        <v>457188.7783185172</v>
+        <v>512763.5358263764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509349161853633e-06</v>
+        <v>4.317288075496358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.276909722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>413555.3229842776</v>
+        <v>463826.1036352487</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.5262978291776</v>
+        <v>211.0534172992254</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.0040449479392</v>
+        <v>288.7725965682991</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.430325570534</v>
+        <v>261.2125452467904</v>
       </c>
       <c r="AD3" t="n">
-        <v>180526.2978291776</v>
+        <v>211053.4172992254</v>
       </c>
       <c r="AE3" t="n">
-        <v>247004.0449479392</v>
+        <v>288772.5965682991</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.644758826100955e-06</v>
+        <v>6.270739065408541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.698784722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>223430.325570534</v>
+        <v>261212.5452467904</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.1549224861423</v>
+        <v>175.5064249747252</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.2898098975322</v>
+        <v>240.1356334473205</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.0291683915919</v>
+        <v>217.2174256236561</v>
       </c>
       <c r="AD4" t="n">
-        <v>155154.9224861423</v>
+        <v>175506.4249747252</v>
       </c>
       <c r="AE4" t="n">
-        <v>212289.8098975322</v>
+        <v>240135.6334473205</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.01815564790409e-06</v>
+        <v>6.913161280182393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>192029.1683915919</v>
+        <v>217217.4256236561</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.1062352628108</v>
+        <v>175.4577377513937</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.2231938906414</v>
+        <v>240.0690174404297</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.9689101229026</v>
+        <v>217.1571673549668</v>
       </c>
       <c r="AD5" t="n">
-        <v>155106.2352628108</v>
+        <v>175457.7377513937</v>
       </c>
       <c r="AE5" t="n">
-        <v>212223.1938906414</v>
+        <v>240069.0174404297</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.024664487658671e-06</v>
+        <v>6.924359616661404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.160590277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>191968.9101229026</v>
+        <v>217157.1673549667</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.1856675623052</v>
+        <v>165.1234348656402</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.439970796944</v>
+        <v>225.9291683148826</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.2646472683152</v>
+        <v>204.3668055845545</v>
       </c>
       <c r="AD2" t="n">
-        <v>139185.6675623052</v>
+        <v>165123.4348656402</v>
       </c>
       <c r="AE2" t="n">
-        <v>190439.970796944</v>
+        <v>225929.1683148826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.823954915483447e-06</v>
+        <v>7.665730900997913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.501736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>172264.6472683152</v>
+        <v>204366.8055845545</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.5882711783615</v>
+        <v>268.0311159198603</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.4469983977344</v>
+        <v>366.731997499843</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.2913550419914</v>
+        <v>331.7316103700484</v>
       </c>
       <c r="AD2" t="n">
-        <v>238588.2711783615</v>
+        <v>268031.1159198603</v>
       </c>
       <c r="AE2" t="n">
-        <v>326446.9983977344</v>
+        <v>366731.997499843</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.079440938715817e-06</v>
+        <v>5.453918726175205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>295291.3550419915</v>
+        <v>331731.6103700484</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.063914745937</v>
+        <v>175.3360777782893</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.851092040434</v>
+        <v>239.902556897969</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.777584308921</v>
+        <v>217.0065935730497</v>
       </c>
       <c r="AD3" t="n">
-        <v>146063.914745937</v>
+        <v>175336.0777782892</v>
       </c>
       <c r="AE3" t="n">
-        <v>199851.092040434</v>
+        <v>239902.556897969</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.089203007067712e-06</v>
+        <v>7.242282381515319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.282118055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>180777.584308921</v>
+        <v>217006.5935730496</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.083651626832</v>
+        <v>164.7122446240127</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.5098527947186</v>
+        <v>225.3665596858549</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.5643510543752</v>
+        <v>203.8578915334548</v>
       </c>
       <c r="AD4" t="n">
-        <v>145083.651626832</v>
+        <v>164712.2446240127</v>
       </c>
       <c r="AE4" t="n">
-        <v>198509.8527947186</v>
+        <v>225366.5596858549</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.117862854873501e-06</v>
+        <v>7.293041101603813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.245225694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>179564.3510543752</v>
+        <v>203857.8915334549</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.9071559949447</v>
+        <v>317.9159227702473</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.2448312307116</v>
+        <v>434.9865909948987</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.9547982150241</v>
+        <v>393.4720812578596</v>
       </c>
       <c r="AD2" t="n">
-        <v>277907.1559949447</v>
+        <v>317915.9227702473</v>
       </c>
       <c r="AE2" t="n">
-        <v>380244.8312307115</v>
+        <v>434986.5909948987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.780208162457731e-06</v>
+        <v>4.848440269761587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.610677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343954.7982150241</v>
+        <v>393472.0812578596</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8814363755752</v>
+        <v>191.7174192564595</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4933229538987</v>
+        <v>262.3162310021712</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.3543110790734</v>
+        <v>237.281138078543</v>
       </c>
       <c r="AD3" t="n">
-        <v>161881.4363755752</v>
+        <v>191717.4192564595</v>
       </c>
       <c r="AE3" t="n">
-        <v>221493.3229538987</v>
+        <v>262316.2310021712</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.875267356978414e-06</v>
+        <v>6.758127885308068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.460069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>200354.3110790734</v>
+        <v>237281.138078543</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.5841240447029</v>
+        <v>169.5885969409049</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.6675977036767</v>
+        <v>232.0386000553046</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.1344094316736</v>
+        <v>209.8931617343139</v>
       </c>
       <c r="AD4" t="n">
-        <v>149584.1240447029</v>
+        <v>169588.5969409049</v>
       </c>
       <c r="AE4" t="n">
-        <v>204667.5977036767</v>
+        <v>232038.6000553046</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.078366662666829e-06</v>
+        <v>7.112315339958885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.188802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185134.4094316736</v>
+        <v>209893.1617343139</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.5671361408556</v>
+        <v>439.9169269448041</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.3371392089821</v>
+        <v>601.9137472109674</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.2909280283581</v>
+        <v>544.467943968402</v>
       </c>
       <c r="AD2" t="n">
-        <v>398567.1361408556</v>
+        <v>439916.9269448041</v>
       </c>
       <c r="AE2" t="n">
-        <v>545337.1392089821</v>
+        <v>601913.7472109674</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265756150981509e-06</v>
+        <v>3.851635290555717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.014756944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>493290.9280283581</v>
+        <v>544467.943968402</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.0697907523037</v>
+        <v>240.2488103385573</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.3760700465181</v>
+        <v>328.7190213345307</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.3808802035735</v>
+        <v>297.3465392985049</v>
       </c>
       <c r="AD3" t="n">
-        <v>199069.7907523037</v>
+        <v>240248.8103385573</v>
       </c>
       <c r="AE3" t="n">
-        <v>272376.0700465181</v>
+        <v>328719.0213345307</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.437079143925054e-06</v>
+        <v>5.842806747513408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.941840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>246380.8802035735</v>
+        <v>297346.5392985049</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.9412271497181</v>
+        <v>186.6161673059676</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.0481077964066</v>
+        <v>255.3364730321589</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.3789550524036</v>
+        <v>230.9675184130347</v>
       </c>
       <c r="AD4" t="n">
-        <v>165941.2271497181</v>
+        <v>186616.1673059676</v>
       </c>
       <c r="AE4" t="n">
-        <v>227048.1077964066</v>
+        <v>255336.4730321589</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.889289250071105e-06</v>
+        <v>6.611533957113417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.251736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>205378.9550524036</v>
+        <v>230967.5184130347</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.5887583179603</v>
+        <v>180.2636984742098</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.3563796896543</v>
+        <v>246.6447449254065</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.51675327724</v>
+        <v>223.105316637871</v>
       </c>
       <c r="AD5" t="n">
-        <v>159588.7583179603</v>
+        <v>180263.6984742098</v>
       </c>
       <c r="AE5" t="n">
-        <v>218356.3796896542</v>
+        <v>246644.7449254065</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.974743313833979e-06</v>
+        <v>6.756800201924407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>197516.7532772399</v>
+        <v>223105.316637871</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.6635028688786</v>
+        <v>222.4026906063196</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.9789484558312</v>
+        <v>304.3011730016586</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.6897295155741</v>
+        <v>275.2590961398489</v>
       </c>
       <c r="AD2" t="n">
-        <v>193663.5028688786</v>
+        <v>222402.6906063196</v>
       </c>
       <c r="AE2" t="n">
-        <v>264978.9484558313</v>
+        <v>304301.1730016586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425471468121466e-06</v>
+        <v>6.176935660394143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.449652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>239689.7295155741</v>
+        <v>275259.0961398489</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.8914808576791</v>
+        <v>169.5453277405485</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.7739398028449</v>
+        <v>231.9793972264746</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.3758655480396</v>
+        <v>209.8396091403757</v>
       </c>
       <c r="AD3" t="n">
-        <v>140891.4808576791</v>
+        <v>169545.3277405485</v>
       </c>
       <c r="AE3" t="n">
-        <v>192773.9398028449</v>
+        <v>231979.3972264746</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137770790169314e-06</v>
+        <v>7.461379896517001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.340711805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>174375.8655480396</v>
+        <v>209839.6091403757</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.2531033169993</v>
+        <v>167.0082648154277</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.5322393715721</v>
+        <v>228.5080758050092</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.3481098596805</v>
+        <v>206.6995857633436</v>
       </c>
       <c r="AD2" t="n">
-        <v>139253.1033169993</v>
+        <v>167008.2648154277</v>
       </c>
       <c r="AE2" t="n">
-        <v>190532.2393715721</v>
+        <v>228508.0758050092</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.032208273391732e-06</v>
+        <v>7.522811772056723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.707465277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>172348.1098596805</v>
+        <v>206699.5857633436</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.7109005807955</v>
+        <v>162.4660620792238</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.3173972000591</v>
+        <v>222.2932336334962</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.7264035024289</v>
+        <v>201.0778794060921</v>
       </c>
       <c r="AD3" t="n">
-        <v>134710.9005807955</v>
+        <v>162466.0620792238</v>
       </c>
       <c r="AE3" t="n">
-        <v>184317.3972000591</v>
+        <v>222293.2336334962</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134766083969859e-06</v>
+        <v>7.714151864736143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.56640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>166726.4035024289</v>
+        <v>201077.879406092</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1446722054158</v>
+        <v>158.0451401448935</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.4379262059749</v>
+        <v>216.2443332056377</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.3126223716381</v>
+        <v>195.6062775453815</v>
       </c>
       <c r="AD2" t="n">
-        <v>131144.6722054158</v>
+        <v>158045.1401448935</v>
       </c>
       <c r="AE2" t="n">
-        <v>179437.9262059749</v>
+        <v>216244.3332056377</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.05681409225055e-06</v>
+        <v>7.801403940700345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.868055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>162312.6223716381</v>
+        <v>195606.2775453815</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.9963443601995</v>
+        <v>174.2026341190581</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.8633716083301</v>
+        <v>238.3517292794047</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.4069375461282</v>
+        <v>215.6037747658004</v>
       </c>
       <c r="AD2" t="n">
-        <v>148996.3443601996</v>
+        <v>174202.6341190581</v>
       </c>
       <c r="AE2" t="n">
-        <v>203863.3716083301</v>
+        <v>238351.7292794047</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571957548114877e-06</v>
+        <v>7.367517214678269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.154947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>184406.9375461282</v>
+        <v>215603.7747658004</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.6954179660966</v>
+        <v>296.1657296462571</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.2219954636387</v>
+        <v>405.2270172118564</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.7018611598605</v>
+        <v>366.5527194288467</v>
       </c>
       <c r="AD2" t="n">
-        <v>256695.4179660965</v>
+        <v>296165.7296462571</v>
       </c>
       <c r="AE2" t="n">
-        <v>351221.9954636387</v>
+        <v>405227.0172118564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932043191247776e-06</v>
+        <v>5.151484224440111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.289496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>317701.8611598605</v>
+        <v>366552.7194288467</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.8171827539406</v>
+        <v>182.3772684639101</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.0912112621373</v>
+        <v>249.5366246294402</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.1358395206967</v>
+        <v>225.7211994017312</v>
       </c>
       <c r="AD3" t="n">
-        <v>152817.1827539406</v>
+        <v>182377.2684639101</v>
       </c>
       <c r="AE3" t="n">
-        <v>209091.2112621373</v>
+        <v>249536.6246294402</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.996969471564611e-06</v>
+        <v>7.022517689983718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>189135.8395206967</v>
+        <v>225721.1994017312</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.668557191276</v>
+        <v>167.4890986402015</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0466346259741</v>
+        <v>229.1659738569556</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.7635873915613</v>
+        <v>207.2946949485782</v>
       </c>
       <c r="AD4" t="n">
-        <v>147668.557191276</v>
+        <v>167489.0986402015</v>
       </c>
       <c r="AE4" t="n">
-        <v>202046.6346259741</v>
+        <v>229165.9738569556</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.095150671997003e-06</v>
+        <v>7.195018186113455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.219184027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>182763.5873915612</v>
+        <v>207294.6949485782</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.2749822034039</v>
+        <v>411.4791752109101</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.9441248611558</v>
+        <v>563.0039607035912</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.8982294358309</v>
+        <v>509.2716528750613</v>
       </c>
       <c r="AD2" t="n">
-        <v>360274.9822034038</v>
+        <v>411479.17521091</v>
       </c>
       <c r="AE2" t="n">
-        <v>492944.1248611559</v>
+        <v>563003.9607035912</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.383672897332644e-06</v>
+        <v>4.075815012221002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.639322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>445898.2294358309</v>
+        <v>509271.6528750613</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.794665199549</v>
+        <v>220.5683855167953</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.6854340755852</v>
+        <v>301.7913958543434</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.901420718283</v>
+        <v>272.9888486009784</v>
       </c>
       <c r="AD3" t="n">
-        <v>189794.665199549</v>
+        <v>220568.3855167953</v>
       </c>
       <c r="AE3" t="n">
-        <v>259685.4340755852</v>
+        <v>301791.3958543434</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.538832345528443e-06</v>
+        <v>6.051008934899702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.8203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>234901.420718283</v>
+        <v>272988.8486009784</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.3031087940427</v>
+        <v>179.8190118474246</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.9655414090628</v>
+        <v>246.0363050644499</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.163216053603</v>
+        <v>222.5549454232932</v>
       </c>
       <c r="AD4" t="n">
-        <v>159303.1087940427</v>
+        <v>179819.0118474246</v>
       </c>
       <c r="AE4" t="n">
-        <v>217965.5414090627</v>
+        <v>246036.3050644499</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962539479036556e-06</v>
+        <v>6.775500914260616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.197482638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>197163.216053603</v>
+        <v>222554.9454232932</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.7136214203951</v>
+        <v>177.229524473777</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.4224905443197</v>
+        <v>242.4932541997068</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.9583089906868</v>
+        <v>219.3500383603769</v>
       </c>
       <c r="AD5" t="n">
-        <v>156713.6214203951</v>
+        <v>177229.524473777</v>
       </c>
       <c r="AE5" t="n">
-        <v>214422.4905443197</v>
+        <v>242493.2541997068</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.010746248089661e-06</v>
+        <v>6.857929117063603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.134548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>193958.3089906868</v>
+        <v>219350.0383603769</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.7878778560645</v>
+        <v>195.4249325776247</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.7335561768794</v>
+        <v>267.3890142921308</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.4761781839314</v>
+        <v>241.8697820510066</v>
       </c>
       <c r="AD2" t="n">
-        <v>162787.8778560645</v>
+        <v>195424.9325776247</v>
       </c>
       <c r="AE2" t="n">
-        <v>222733.5561768794</v>
+        <v>267389.0142921308</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.088242470116405e-06</v>
+        <v>6.61952602848374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>201476.1781839314</v>
+        <v>241869.7820510066</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3885095251256</v>
+        <v>179.5232414503634</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.136437521859</v>
+        <v>245.6316189587219</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.3676266426478</v>
+        <v>222.1888819915152</v>
       </c>
       <c r="AD2" t="n">
-        <v>151388.5095251256</v>
+        <v>179523.2414503634</v>
       </c>
       <c r="AE2" t="n">
-        <v>207136.437521859</v>
+        <v>245631.6189587219</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.849066429510971e-06</v>
+        <v>7.091645219507703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>187367.6266426478</v>
+        <v>222188.8819915152</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.6676624276541</v>
+        <v>164.6318021522997</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.9947250851696</v>
+        <v>225.2564947471857</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.1482109718388</v>
+        <v>203.7583310380551</v>
       </c>
       <c r="AD3" t="n">
-        <v>136667.6624276541</v>
+        <v>164631.8021522997</v>
       </c>
       <c r="AE3" t="n">
-        <v>186994.7250851697</v>
+        <v>225256.4947471857</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.148597353157511e-06</v>
+        <v>7.643510738503849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.466579861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>169148.2109718387</v>
+        <v>203758.3310380551</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2489452030746</v>
+        <v>249.0186613121119</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.671882355542</v>
+        <v>340.7183183350611</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2168816536364</v>
+        <v>308.2006402344275</v>
       </c>
       <c r="AD2" t="n">
-        <v>210248.9452030746</v>
+        <v>249018.6613121119</v>
       </c>
       <c r="AE2" t="n">
-        <v>287671.882355542</v>
+        <v>340718.3183350611</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.250710391480031e-06</v>
+        <v>5.80715688312406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.716579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>260216.8816536364</v>
+        <v>308200.6402344275</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.0469734926702</v>
+        <v>172.0176740147847</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.7231799196619</v>
+        <v>235.3621704711026</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.0436343273931</v>
+        <v>212.8995352542895</v>
       </c>
       <c r="AD3" t="n">
-        <v>143046.9734926702</v>
+        <v>172017.6740147847</v>
       </c>
       <c r="AE3" t="n">
-        <v>195723.1799196619</v>
+        <v>235362.1704711026</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.122302461405123e-06</v>
+        <v>7.364192508754611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.297309027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>177043.6343273931</v>
+        <v>212899.5352542895</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.6311232002762</v>
+        <v>172.6018237223907</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.5224393204743</v>
+        <v>236.161429871915</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.7666135327598</v>
+        <v>213.6225144596563</v>
       </c>
       <c r="AD4" t="n">
-        <v>143631.1232002762</v>
+        <v>172601.8237223907</v>
       </c>
       <c r="AE4" t="n">
-        <v>196522.4393204743</v>
+        <v>236161.429871915</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.122000593913808e-06</v>
+        <v>7.363653244511147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.297309027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>177766.6135327598</v>
+        <v>213622.5144596563</v>
       </c>
     </row>
   </sheetData>
